--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_cors_processed.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_cors_processed.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,38 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>FEATURE1</t>
-  </si>
-  <si>
-    <t>FEATURE2</t>
-  </si>
-  <si>
-    <t>FEATURE3</t>
-  </si>
-  <si>
-    <t>FEATURE4</t>
-  </si>
-  <si>
-    <t>FEATURE5</t>
-  </si>
-  <si>
-    <t>FEATURE6</t>
-  </si>
-  <si>
-    <t>FEATURE7</t>
-  </si>
-  <si>
-    <t>FEATURE8</t>
-  </si>
-  <si>
-    <t>sc1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -82,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,39 +433,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>FEATURE8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sc1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FEATURE1</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -439,30 +494,32 @@
         <v>0.2362283726851202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4079902683202482</v>
+        <v>0.407990268320249</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4641602361718795</v>
+        <v>0.46416023617188</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2176101153693371</v>
+        <v>0.2176101153693374</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08010966273761898</v>
+        <v>-0.08010966273761931</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.04283682647661097</v>
+        <v>-0.0428368264766109</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02006754059967183</v>
+        <v>-0.02006754059967182</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5763971598016532</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>1</v>
+        <v>0.5763971598016543</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FEATURE2</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0.2362283726851202</v>
@@ -471,71 +528,75 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3703696339326117</v>
+        <v>0.370369633932612</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3163289720865515</v>
+        <v>0.3163289720865518</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3967796523747842</v>
+        <v>0.3967796523747849</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1999315586932084</v>
+        <v>0.1999315586932083</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.005106179228407075</v>
+        <v>-0.00510617922840701</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07683256610594263</v>
+        <v>-0.07683256610594272</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3208223349569226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>2</v>
+        <v>0.3208223349569233</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FEATURE3</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4079902683202482</v>
+        <v>0.407990268320249</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3703696339326117</v>
+        <v>0.370369633932612</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3410868921908552</v>
+        <v>0.3410868921908555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3667957276569749</v>
+        <v>0.3667957276569764</v>
       </c>
       <c r="G4" t="n">
-        <v>0.286852710924245</v>
+        <v>0.2868527109242451</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02484802374346796</v>
+        <v>0.02484802374346817</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04718278554012104</v>
+        <v>-0.04718278554012108</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5095072288219606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>3</v>
+        <v>0.5095072288219624</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FEATURE4</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4641602361718795</v>
+        <v>0.46416023617188</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3163289720865515</v>
+        <v>0.3163289720865518</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3410868921908552</v>
+        <v>0.3410868921908555</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -547,27 +608,29 @@
         <v>0.258550404793668</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01573737122613413</v>
+        <v>-0.01573737122613412</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.09071074511789955</v>
+        <v>-0.0907107451178996</v>
       </c>
       <c r="J5" t="n">
-        <v>0.487528769871836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>4</v>
+        <v>0.4875287698718372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FEATURE5</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2176101153693371</v>
+        <v>0.2176101153693374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3967796523747842</v>
+        <v>0.3967796523747849</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3667957276569749</v>
+        <v>0.3667957276569764</v>
       </c>
       <c r="E6" t="n">
         <v>0.325267214675602</v>
@@ -576,71 +639,75 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2674240897731013</v>
+        <v>0.2674240897731017</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.00637459088829308</v>
+        <v>-0.006374590888293057</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08295540967847372</v>
+        <v>-0.08295540967847381</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3295421731935059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>5</v>
+        <v>0.3295421731935068</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FEATURE6</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.08010966273761898</v>
+        <v>-0.08010966273761931</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1999315586932084</v>
+        <v>0.1999315586932083</v>
       </c>
       <c r="D7" t="n">
-        <v>0.286852710924245</v>
+        <v>0.2868527109242451</v>
       </c>
       <c r="E7" t="n">
         <v>0.258550404793668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2674240897731013</v>
+        <v>0.2674240897731017</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02349377100916284</v>
+        <v>0.02349377100916275</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03361316264271769</v>
+        <v>-0.03361316264271774</v>
       </c>
       <c r="J7" t="n">
-        <v>0.252478669214742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>6</v>
+        <v>0.2524786692147425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FEATURE7</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04283682647661097</v>
+        <v>-0.0428368264766109</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.005106179228407075</v>
+        <v>-0.00510617922840701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02484802374346796</v>
+        <v>0.02484802374346817</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01573737122613413</v>
+        <v>-0.01573737122613412</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.00637459088829308</v>
+        <v>-0.006374590888293057</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02349377100916284</v>
+        <v>0.02349377100916275</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -649,30 +716,32 @@
         <v>0.03511870772915975</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.06912827010818751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>7</v>
+        <v>-0.06912827010818755</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FEATURE8</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.02006754059967183</v>
+        <v>-0.02006754059967182</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07683256610594263</v>
+        <v>-0.07683256610594272</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04718278554012104</v>
+        <v>-0.04718278554012108</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.09071074511789955</v>
+        <v>-0.0907107451178996</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08295540967847372</v>
+        <v>-0.08295540967847381</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03361316264271769</v>
+        <v>-0.03361316264271774</v>
       </c>
       <c r="H9" t="n">
         <v>0.03511870772915975</v>
@@ -681,42 +750,44 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1054866184569822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>8</v>
+        <v>-0.1054866184569823</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sc1</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5763971598016532</v>
+        <v>0.5763971598016543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3208223349569226</v>
+        <v>0.3208223349569233</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5095072288219606</v>
+        <v>0.5095072288219624</v>
       </c>
       <c r="E10" t="n">
-        <v>0.487528769871836</v>
+        <v>0.4875287698718372</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3295421731935059</v>
+        <v>0.3295421731935068</v>
       </c>
       <c r="G10" t="n">
-        <v>0.252478669214742</v>
+        <v>0.2524786692147425</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06912827010818751</v>
+        <v>-0.06912827010818755</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1054866184569822</v>
+        <v>-0.1054866184569823</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_cors_processed.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_cors_processed.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,38 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+  <si>
+    <t>FEATURE1</t>
+  </si>
+  <si>
+    <t>FEATURE2</t>
+  </si>
+  <si>
+    <t>FEATURE3</t>
+  </si>
+  <si>
+    <t>FEATURE4</t>
+  </si>
+  <si>
+    <t>FEATURE5</t>
+  </si>
+  <si>
+    <t>FEATURE6</t>
+  </si>
+  <si>
+    <t>FEATURE7</t>
+  </si>
+  <si>
+    <t>FEATURE8</t>
+  </si>
+  <si>
+    <t>sc1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -50,89 +82,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -433,59 +398,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE5</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE6</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE7</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>FEATURE8</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sc1</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FEATURE1</t>
-        </is>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -494,32 +439,30 @@
         <v>0.2362283726851202</v>
       </c>
       <c r="D2" t="n">
-        <v>0.407990268320249</v>
+        <v>0.4079902683202482</v>
       </c>
       <c r="E2" t="n">
-        <v>0.46416023617188</v>
+        <v>0.4641602361718795</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2176101153693374</v>
+        <v>0.2176101153693371</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08010966273761931</v>
+        <v>-0.08010966273761898</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0428368264766109</v>
+        <v>-0.04283682647661097</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02006754059967182</v>
+        <v>-0.02006754059967183</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5763971598016543</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FEATURE2</t>
-        </is>
+        <v>0.5763971598016532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0.2362283726851202</v>
@@ -528,75 +471,71 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.370369633932612</v>
+        <v>0.3703696339326117</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3163289720865518</v>
+        <v>0.3163289720865515</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3967796523747849</v>
+        <v>0.3967796523747842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1999315586932083</v>
+        <v>0.1999315586932084</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.00510617922840701</v>
+        <v>-0.005106179228407075</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.07683256610594272</v>
+        <v>-0.07683256610594263</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3208223349569233</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FEATURE3</t>
-        </is>
+        <v>0.3208223349569226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.407990268320249</v>
+        <v>0.4079902683202482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.370369633932612</v>
+        <v>0.3703696339326117</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3410868921908555</v>
+        <v>0.3410868921908552</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3667957276569764</v>
+        <v>0.3667957276569749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2868527109242451</v>
+        <v>0.286852710924245</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02484802374346817</v>
+        <v>0.02484802374346796</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.04718278554012108</v>
+        <v>-0.04718278554012104</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5095072288219624</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FEATURE4</t>
-        </is>
+        <v>0.5095072288219606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.46416023617188</v>
+        <v>0.4641602361718795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3163289720865518</v>
+        <v>0.3163289720865515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3410868921908555</v>
+        <v>0.3410868921908552</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -608,29 +547,27 @@
         <v>0.258550404793668</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.01573737122613412</v>
+        <v>-0.01573737122613413</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0907107451178996</v>
+        <v>-0.09071074511789955</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4875287698718372</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FEATURE5</t>
-        </is>
+        <v>0.487528769871836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2176101153693374</v>
+        <v>0.2176101153693371</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3967796523747849</v>
+        <v>0.3967796523747842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3667957276569764</v>
+        <v>0.3667957276569749</v>
       </c>
       <c r="E6" t="n">
         <v>0.325267214675602</v>
@@ -639,75 +576,71 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2674240897731017</v>
+        <v>0.2674240897731013</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.006374590888293057</v>
+        <v>-0.00637459088829308</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.08295540967847381</v>
+        <v>-0.08295540967847372</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3295421731935068</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FEATURE6</t>
-        </is>
+        <v>0.3295421731935059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.08010966273761931</v>
+        <v>-0.08010966273761898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1999315586932083</v>
+        <v>0.1999315586932084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2868527109242451</v>
+        <v>0.286852710924245</v>
       </c>
       <c r="E7" t="n">
         <v>0.258550404793668</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2674240897731017</v>
+        <v>0.2674240897731013</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02349377100916275</v>
+        <v>0.02349377100916284</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03361316264271774</v>
+        <v>-0.03361316264271769</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2524786692147425</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FEATURE7</t>
-        </is>
+        <v>0.252478669214742</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0428368264766109</v>
+        <v>-0.04283682647661097</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.00510617922840701</v>
+        <v>-0.005106179228407075</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02484802374346817</v>
+        <v>0.02484802374346796</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01573737122613412</v>
+        <v>-0.01573737122613413</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006374590888293057</v>
+        <v>-0.00637459088829308</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02349377100916275</v>
+        <v>0.02349377100916284</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -716,32 +649,30 @@
         <v>0.03511870772915975</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.06912827010818755</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FEATURE8</t>
-        </is>
+        <v>-0.06912827010818751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.02006754059967182</v>
+        <v>-0.02006754059967183</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.07683256610594272</v>
+        <v>-0.07683256610594263</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04718278554012108</v>
+        <v>-0.04718278554012104</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.0907107451178996</v>
+        <v>-0.09071074511789955</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08295540967847381</v>
+        <v>-0.08295540967847372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03361316264271774</v>
+        <v>-0.03361316264271769</v>
       </c>
       <c r="H9" t="n">
         <v>0.03511870772915975</v>
@@ -750,44 +681,42 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.1054866184569823</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>sc1</t>
-        </is>
+        <v>-0.1054866184569822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5763971598016543</v>
+        <v>0.5763971598016532</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3208223349569233</v>
+        <v>0.3208223349569226</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5095072288219624</v>
+        <v>0.5095072288219606</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4875287698718372</v>
+        <v>0.487528769871836</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3295421731935068</v>
+        <v>0.3295421731935059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2524786692147425</v>
+        <v>0.252478669214742</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06912827010818755</v>
+        <v>-0.06912827010818751</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1054866184569823</v>
+        <v>-0.1054866184569822</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>